--- a/Measurement_Results/Zeta/tabel_zeta.xlsx
+++ b/Measurement_Results/Zeta/tabel_zeta.xlsx
@@ -381,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -412,7 +412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45</v>
       </c>
@@ -423,8 +423,8 @@
         <v>0.79</v>
       </c>
       <c r="D3">
-        <f>C3/IMSQRT(10)</f>
-        <v>0.24981993515330192</v>
+        <f>C3/IMSQRT(8)</f>
+        <v>0.27930717856868631</v>
       </c>
       <c r="E3">
         <v>-24.7</v>
@@ -433,11 +433,20 @@
         <v>10.11</v>
       </c>
       <c r="G3">
-        <f>F3/IMSQRT(10)</f>
-        <v>3.1970627144302308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F3/IMSQRT(8)</f>
+        <v>3.5744247788979977</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>-1.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -448,8 +457,8 @@
         <v>0.44</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D21" si="0">C4/IMSQRT(10)</f>
-        <v>0.13914021704740867</v>
+        <f>C4/IMSQRT(9)</f>
+        <v>0.14666666666666667</v>
       </c>
       <c r="E4">
         <v>-20.65</v>
@@ -458,11 +467,17 @@
         <v>5.68</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G21" si="1">F4/IMSQRT(10)</f>
-        <v>1.796173710975639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F4/IMSQRT(9)</f>
+        <v>1.8933333333333333</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -473,7 +488,7 @@
         <v>0.46</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D21" si="0">C5/IMSQRT(10)</f>
         <v>0.14546477236774544</v>
       </c>
       <c r="E5">
@@ -483,16 +498,22 @@
         <v>5.86</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G4:G21" si="1">F5/IMSQRT(10)</f>
         <v>1.85309470885867</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45</v>
       </c>
@@ -516,33 +537,27 @@
         <f t="shared" si="1"/>
         <v>1.6886562705299142</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>-0.91</v>
-      </c>
-      <c r="C8">
-        <v>0.49</v>
-      </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.15495160534825056</v>
-      </c>
-      <c r="E8">
-        <v>-11.72</v>
-      </c>
-      <c r="F8">
-        <v>6.24</v>
+        <f>C8/IMSQRT(9)</f>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>1.9732612599450683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F8/IMSQRT(9)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -566,13 +581,16 @@
         <f t="shared" si="1"/>
         <v>1.2807224523681933</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -596,8 +614,11 @@
         <f t="shared" si="1"/>
         <v>2.1440242535941607</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -621,8 +642,11 @@
         <f t="shared" si="1"/>
         <v>1.1004726257385957</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -646,13 +670,16 @@
         <f t="shared" si="1"/>
         <v>1.6475466609477254</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>45</v>
       </c>
@@ -676,8 +703,11 @@
         <f t="shared" si="1"/>
         <v>1.5906256630646947</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -701,8 +731,11 @@
         <f t="shared" si="1"/>
         <v>1.2174768991648259</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -726,13 +759,16 @@
         <f t="shared" si="1"/>
         <v>1.460972278997791</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>45</v>
       </c>
@@ -756,8 +792,11 @@
         <f t="shared" si="1"/>
         <v>1.3249943396105508</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30</v>
       </c>
@@ -781,8 +820,11 @@
         <f t="shared" si="1"/>
         <v>1.4578100013376227</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -805,6 +847,9 @@
       <c r="G21">
         <f t="shared" si="1"/>
         <v>1.6728448822290722</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement_Results/Zeta/tabel_zeta.xlsx
+++ b/Measurement_Results/Zeta/tabel_zeta.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>0.46</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D4:D21" si="0">C5/IMSQRT(10)</f>
+        <f t="shared" ref="D5:D21" si="0">C5/IMSQRT(10)</f>
         <v>0.14546477236774544</v>
       </c>
       <c r="E5">
@@ -498,7 +498,7 @@
         <v>5.86</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G4:G21" si="1">F5/IMSQRT(10)</f>
+        <f t="shared" ref="G5:G21" si="1">F5/IMSQRT(10)</f>
         <v>1.85309470885867</v>
       </c>
       <c r="I5">
@@ -545,13 +545,25 @@
       <c r="A8">
         <v>30</v>
       </c>
+      <c r="B8">
+        <v>-0.84</v>
+      </c>
+      <c r="C8">
+        <v>0.49</v>
+      </c>
       <c r="D8">
         <f>C8/IMSQRT(9)</f>
-        <v>0</v>
+        <v>0.16333333333333333</v>
+      </c>
+      <c r="E8">
+        <v>-10.62</v>
+      </c>
+      <c r="F8">
+        <v>6.26</v>
       </c>
       <c r="G8">
         <f>F8/IMSQRT(9)</f>
-        <v>0</v>
+        <v>2.0866666666666664</v>
       </c>
       <c r="I8">
         <v>9</v>
